--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N2">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q2">
-        <v>70.17877846295556</v>
+        <v>131.494237471125</v>
       </c>
       <c r="R2">
-        <v>631.6090061666</v>
+        <v>1183.448137240125</v>
       </c>
       <c r="S2">
-        <v>0.001725811502336594</v>
+        <v>0.009508832589188443</v>
       </c>
       <c r="T2">
-        <v>0.001725811502336594</v>
+        <v>0.009508832589188441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q3">
-        <v>370.8862706474889</v>
+        <v>491.05183957353</v>
       </c>
       <c r="R3">
-        <v>3337.9764358274</v>
+        <v>4419.466556161769</v>
       </c>
       <c r="S3">
-        <v>0.009120702952674373</v>
+        <v>0.03550976700513634</v>
       </c>
       <c r="T3">
-        <v>0.009120702952674371</v>
+        <v>0.03550976700513633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N4">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q4">
-        <v>95.74967176675555</v>
+        <v>19.76335130448</v>
       </c>
       <c r="R4">
-        <v>861.7470459008</v>
+        <v>177.87016174032</v>
       </c>
       <c r="S4">
-        <v>0.002354641794844671</v>
+        <v>0.001429160718901361</v>
       </c>
       <c r="T4">
-        <v>0.00235464179484467</v>
+        <v>0.001429160718901361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N5">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q5">
-        <v>208.8619840294111</v>
+        <v>301.440669886215</v>
       </c>
       <c r="R5">
-        <v>1879.7578562647</v>
+        <v>2712.966028975935</v>
       </c>
       <c r="S5">
-        <v>0.005136259455257824</v>
+        <v>0.02179828500963977</v>
       </c>
       <c r="T5">
-        <v>0.005136259455257823</v>
+        <v>0.02179828500963977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N6">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q6">
-        <v>78.50256671933333</v>
+        <v>19.986914190375</v>
       </c>
       <c r="R6">
-        <v>706.523100474</v>
+        <v>179.882227713375</v>
       </c>
       <c r="S6">
-        <v>0.001930507135838592</v>
+        <v>0.001445327374535972</v>
       </c>
       <c r="T6">
-        <v>0.001930507135838591</v>
+        <v>0.001445327374535972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N7">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q7">
-        <v>381.7976824743621</v>
+        <v>540.315739723925</v>
       </c>
       <c r="R7">
-        <v>3436.179142269259</v>
+        <v>4862.841657515325</v>
       </c>
       <c r="S7">
-        <v>0.009389032502575121</v>
+        <v>0.03907222105810172</v>
       </c>
       <c r="T7">
-        <v>0.009389032502575121</v>
+        <v>0.03907222105810172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q8">
         <v>2017.754108808218</v>
       </c>
       <c r="R8">
-        <v>18159.78697927397</v>
+        <v>18159.78697927396</v>
       </c>
       <c r="S8">
-        <v>0.04961988974638947</v>
+        <v>0.1459112307565391</v>
       </c>
       <c r="T8">
-        <v>0.04961988974638947</v>
+        <v>0.1459112307565391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,43 +977,43 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N9">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q9">
-        <v>520.9124977506561</v>
+        <v>81.208499968288</v>
       </c>
       <c r="R9">
-        <v>4688.212479755905</v>
+        <v>730.8764997145919</v>
       </c>
       <c r="S9">
-        <v>0.01281009444761867</v>
+        <v>0.005872485713962435</v>
       </c>
       <c r="T9">
-        <v>0.01281009444761867</v>
+        <v>0.005872485713962435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N10">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q10">
-        <v>1136.283976523179</v>
+        <v>1238.633279030279</v>
       </c>
       <c r="R10">
-        <v>10226.55578870861</v>
+        <v>11147.69951127251</v>
       </c>
       <c r="S10">
-        <v>0.02794309048339453</v>
+        <v>0.08957013414586168</v>
       </c>
       <c r="T10">
-        <v>0.02794309048339453</v>
+        <v>0.08957013414586169</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N11">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q11">
-        <v>427.0820709361801</v>
+        <v>82.12712992797499</v>
       </c>
       <c r="R11">
-        <v>3843.738638425621</v>
+        <v>739.144169351775</v>
       </c>
       <c r="S11">
-        <v>0.01050265004045999</v>
+        <v>0.005938915229552384</v>
       </c>
       <c r="T11">
-        <v>0.01050265004045999</v>
+        <v>0.005938915229552385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N12">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q12">
-        <v>1354.601338923055</v>
+        <v>776.2827148652779</v>
       </c>
       <c r="R12">
-        <v>12191.41205030749</v>
+        <v>6986.544433787501</v>
       </c>
       <c r="S12">
-        <v>0.03331187323284599</v>
+        <v>0.05613586206890288</v>
       </c>
       <c r="T12">
-        <v>0.03331187323284599</v>
+        <v>0.05613586206890287</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q13">
-        <v>7158.902588657402</v>
+        <v>2898.948748590111</v>
       </c>
       <c r="R13">
-        <v>64430.12329791662</v>
+        <v>26090.538737311</v>
       </c>
       <c r="S13">
-        <v>0.176049180424732</v>
+        <v>0.2096336604943154</v>
       </c>
       <c r="T13">
-        <v>0.176049180424732</v>
+        <v>0.2096336604943154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N14">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q14">
-        <v>1848.174568116124</v>
+        <v>116.6739189528889</v>
       </c>
       <c r="R14">
-        <v>16633.57111304512</v>
+        <v>1050.065270576</v>
       </c>
       <c r="S14">
-        <v>0.04544965013411328</v>
+        <v>0.008437120775662757</v>
       </c>
       <c r="T14">
-        <v>0.04544965013411328</v>
+        <v>0.008437120775662756</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N15">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q15">
-        <v>4031.485434955383</v>
+        <v>1779.569858652278</v>
       </c>
       <c r="R15">
-        <v>36283.36891459845</v>
+        <v>16016.1287278705</v>
       </c>
       <c r="S15">
-        <v>0.09914085265563669</v>
+        <v>0.1286872504234727</v>
       </c>
       <c r="T15">
-        <v>0.09914085265563669</v>
+        <v>0.1286872504234727</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N16">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q16">
-        <v>1515.268351999567</v>
+        <v>117.9937334736111</v>
       </c>
       <c r="R16">
-        <v>13637.4151679961</v>
+        <v>1061.9436012625</v>
       </c>
       <c r="S16">
-        <v>0.0372629391431749</v>
+        <v>0.008532561424376228</v>
       </c>
       <c r="T16">
-        <v>0.0372629391431749</v>
+        <v>0.00853256142437623</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N17">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q17">
-        <v>97.48079627623088</v>
+        <v>76.72568453427502</v>
       </c>
       <c r="R17">
-        <v>877.3271664860779</v>
+        <v>690.5311608084752</v>
       </c>
       <c r="S17">
-        <v>0.002397212991663183</v>
+        <v>0.005548316820252398</v>
       </c>
       <c r="T17">
-        <v>0.002397212991663183</v>
+        <v>0.005548316820252397</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q18">
-        <v>515.1740993856602</v>
+        <v>286.5242557976541</v>
       </c>
       <c r="R18">
-        <v>4636.566894470941</v>
+        <v>2578.718302178886</v>
       </c>
       <c r="S18">
-        <v>0.01266897780067493</v>
+        <v>0.02071962417151533</v>
       </c>
       <c r="T18">
-        <v>0.01266897780067493</v>
+        <v>0.02071962417151533</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N19">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q19">
-        <v>132.9996681537849</v>
+        <v>11.531734672864</v>
       </c>
       <c r="R19">
-        <v>1196.997013384064</v>
+        <v>103.785612055776</v>
       </c>
       <c r="S19">
-        <v>0.003270680426960017</v>
+        <v>0.0008339022042033018</v>
       </c>
       <c r="T19">
-        <v>0.003270680426960017</v>
+        <v>0.0008339022042033017</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N20">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q20">
-        <v>290.1166557888667</v>
+        <v>175.887873022337</v>
       </c>
       <c r="R20">
-        <v>2611.0499020998</v>
+        <v>1582.990857201033</v>
       </c>
       <c r="S20">
-        <v>0.007134445377161189</v>
+        <v>0.01271909987238111</v>
       </c>
       <c r="T20">
-        <v>0.007134445377161189</v>
+        <v>0.01271909987238111</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N21">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q21">
-        <v>109.0428314817133</v>
+        <v>11.662181571425</v>
       </c>
       <c r="R21">
-        <v>981.3854833354198</v>
+        <v>104.959634142825</v>
       </c>
       <c r="S21">
-        <v>0.002681542439753748</v>
+        <v>0.0008433352998586743</v>
       </c>
       <c r="T21">
-        <v>0.002681542439753748</v>
+        <v>0.0008433352998586743</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N22">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q22">
-        <v>1558.495461014081</v>
+        <v>361.9895937702445</v>
       </c>
       <c r="R22">
-        <v>14026.45914912673</v>
+        <v>3257.9063439322</v>
       </c>
       <c r="S22">
-        <v>0.03832596479827927</v>
+        <v>0.0261768006901857</v>
       </c>
       <c r="T22">
-        <v>0.03832596479827927</v>
+        <v>0.02617680069018569</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.558846</v>
       </c>
       <c r="O23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q23">
-        <v>8236.458114779905</v>
+        <v>1351.813275972546</v>
       </c>
       <c r="R23">
-        <v>74128.12303301916</v>
+        <v>12166.31948375291</v>
       </c>
       <c r="S23">
-        <v>0.2025480417916368</v>
+        <v>0.09775459655323679</v>
       </c>
       <c r="T23">
-        <v>0.2025480417916368</v>
+        <v>0.09775459655323676</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N24">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q24">
-        <v>2126.361160886358</v>
+        <v>54.40639565531022</v>
       </c>
       <c r="R24">
-        <v>19137.25044797722</v>
+        <v>489.657560897792</v>
       </c>
       <c r="S24">
-        <v>0.05229071565439899</v>
+        <v>0.003934326842125671</v>
       </c>
       <c r="T24">
-        <v>0.05229071565439899</v>
+        <v>0.003934326842125671</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N25">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q25">
-        <v>4638.303219541733</v>
+        <v>829.8339739937485</v>
       </c>
       <c r="R25">
-        <v>41744.72897587559</v>
+        <v>7468.505765943736</v>
       </c>
       <c r="S25">
-        <v>0.1140634992932428</v>
+        <v>0.06000835083940657</v>
       </c>
       <c r="T25">
-        <v>0.1140634992932428</v>
+        <v>0.06000835083940657</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N26">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q26">
-        <v>1743.34601698172</v>
+        <v>55.02184040637778</v>
       </c>
       <c r="R26">
-        <v>15690.11415283548</v>
+        <v>495.1965636574</v>
       </c>
       <c r="S26">
-        <v>0.04287174377433627</v>
+        <v>0.003978831918685252</v>
       </c>
       <c r="T26">
-        <v>0.04287174377433627</v>
+        <v>0.003978831918685252</v>
       </c>
     </row>
   </sheetData>
